--- a/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C4FCCF-3827-441F-9811-36AD523B50E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6CA901-FBB7-4D83-B11E-C3D494A68434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{55636256-E177-43C0-BC3B-3869F415A7AA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C24B9ACC-25D2-4496-84AA-2162DFEAD18B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>43,21%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
   </si>
   <si>
     <t>63,92%</t>
@@ -682,7 +682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE26820-C7B1-40F6-B176-12D1D59E179C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7DF816-D9D2-44EA-B769-801A79C462C5}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,10 +955,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="D7" s="7">
-        <v>247775</v>
+        <v>137590</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +970,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="I7" s="7">
-        <v>207550</v>
+        <v>132143</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +985,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>580</v>
+        <v>366</v>
       </c>
       <c r="N7" s="7">
-        <v>455324</v>
+        <v>269733</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1006,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D8" s="7">
-        <v>154506</v>
+        <v>65978</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1021,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>142064</v>
+        <v>66124</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1036,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="N8" s="7">
-        <v>296570</v>
+        <v>132102</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1057,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>478</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>402281</v>
+        <v>203568</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>461</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>349614</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>939</v>
+        <v>550</v>
       </c>
       <c r="N9" s="7">
-        <v>751894</v>
+        <v>401835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="D10" s="7">
-        <v>137590</v>
+        <v>247775</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1125,10 +1125,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>185</v>
+        <v>278</v>
       </c>
       <c r="I10" s="7">
-        <v>132143</v>
+        <v>207550</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1140,10 +1140,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>366</v>
+        <v>580</v>
       </c>
       <c r="N10" s="7">
-        <v>269733</v>
+        <v>455324</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1161,10 +1161,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="D11" s="7">
-        <v>65978</v>
+        <v>154506</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1176,10 +1176,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="I11" s="7">
-        <v>66124</v>
+        <v>142064</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1191,10 +1191,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>184</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>132102</v>
+        <v>296570</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1212,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>269</v>
+        <v>478</v>
       </c>
       <c r="D12" s="7">
-        <v>203568</v>
+        <v>402281</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1227,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>349614</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1242,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>550</v>
+        <v>939</v>
       </c>
       <c r="N12" s="7">
-        <v>401835</v>
+        <v>751894</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6CA901-FBB7-4D83-B11E-C3D494A68434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A605179-DFCF-4102-BF8C-8F0496AF9151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C24B9ACC-25D2-4496-84AA-2162DFEAD18B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B151A13-A123-44F8-8184-5B038D0B0D8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si tienen una baja adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 96,56%)</t>
   </si>
@@ -65,232 +65,292 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>63,92%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>63,37%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -301,7 +361,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -397,39 +457,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -481,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -592,13 +652,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -607,6 +660,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -671,19 +731,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7DF816-D9D2-44EA-B769-801A79C462C5}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602B8B7A-E930-4485-A67E-3858D74C6C92}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -800,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>67483</v>
+        <v>17561</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -815,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>62308</v>
+        <v>15643</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -830,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>129792</v>
+        <v>33204</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -851,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>35096</v>
+        <v>25583</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -866,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>30419</v>
+        <v>30650</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -881,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="N5" s="7">
-        <v>65514</v>
+        <v>56232</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -902,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>102579</v>
+        <v>43144</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -917,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>92727</v>
+        <v>46293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -932,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>365</v>
+        <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>195306</v>
+        <v>89436</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="D7" s="7">
-        <v>137590</v>
+        <v>54136</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -970,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>132143</v>
+        <v>45814</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -985,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>164</v>
       </c>
       <c r="N7" s="7">
-        <v>269733</v>
+        <v>99950</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1006,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="D8" s="7">
-        <v>65978</v>
+        <v>120581</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1021,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="I8" s="7">
-        <v>66124</v>
+        <v>112951</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1036,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>184</v>
+        <v>369</v>
       </c>
       <c r="N8" s="7">
-        <v>132102</v>
+        <v>233532</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1057,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>203568</v>
+        <v>174717</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1072,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1087,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>401835</v>
+        <v>333482</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>247775</v>
+        <v>65509</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1125,34 +1205,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>207550</v>
+        <v>64857</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>163</v>
+      </c>
+      <c r="N10" s="7">
+        <v>130366</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>580</v>
-      </c>
-      <c r="N10" s="7">
-        <v>455324</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1161,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D11" s="7">
-        <v>154506</v>
+        <v>136063</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>149</v>
+      </c>
+      <c r="I11" s="7">
+        <v>111256</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>183</v>
-      </c>
-      <c r="I11" s="7">
-        <v>142064</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>312</v>
+      </c>
+      <c r="N11" s="7">
+        <v>247319</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>359</v>
-      </c>
-      <c r="N11" s="7">
-        <v>296570</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>402281</v>
+        <v>201572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1227,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>461</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>349614</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1242,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>939</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>751894</v>
+        <v>377685</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1259,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>607</v>
+        <v>131</v>
       </c>
       <c r="D13" s="7">
-        <v>452848</v>
+        <v>118373</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>145</v>
+      </c>
+      <c r="I13" s="7">
+        <v>112293</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>580</v>
-      </c>
-      <c r="I13" s="7">
-        <v>402002</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>276</v>
+      </c>
+      <c r="N13" s="7">
+        <v>230666</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>1187</v>
-      </c>
-      <c r="N13" s="7">
-        <v>854850</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,10 +1396,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="D14" s="7">
-        <v>255579</v>
+        <v>170621</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1331,10 +1411,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>238607</v>
+        <v>147145</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1346,19 +1426,19 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>667</v>
+        <v>406</v>
       </c>
       <c r="N14" s="7">
-        <v>494186</v>
+        <v>317767</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,55 +1447,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>341</v>
+      </c>
+      <c r="I15" s="7">
+        <v>259438</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>682</v>
+      </c>
+      <c r="N15" s="7">
+        <v>548433</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>332</v>
+      </c>
+      <c r="D16" s="7">
+        <v>255579</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>335</v>
+      </c>
+      <c r="I16" s="7">
+        <v>238607</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>667</v>
+      </c>
+      <c r="N16" s="7">
+        <v>494186</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>607</v>
+      </c>
+      <c r="D17" s="7">
+        <v>452848</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>580</v>
+      </c>
+      <c r="I17" s="7">
+        <v>402002</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1187</v>
+      </c>
+      <c r="N17" s="7">
+        <v>854850</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>939</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>708427</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>915</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>640609</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1854</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1349036</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A605179-DFCF-4102-BF8C-8F0496AF9151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1078CB56-7D63-4A0D-BBB2-98FFC95F1C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B151A13-A123-44F8-8184-5B038D0B0D8B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EFDCC85-CEE4-415B-A43C-4D546DDC16E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>40,7%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
   </si>
   <si>
     <t>33,79%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
   </si>
   <si>
     <t>37,13%</t>
   </si>
   <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>59,3%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>62,87%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,106 +137,112 @@
     <t>30,99%</t>
   </si>
   <si>
-    <t>25,53%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>36,83%</t>
   </si>
   <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
   </si>
   <si>
     <t>63,17%</t>
   </si>
   <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -245,109 +251,103 @@
     <t>40,96%</t>
   </si>
   <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
   </si>
   <si>
     <t>43,28%</t>
   </si>
   <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
   </si>
   <si>
     <t>59,04%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>56,72%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>33,76%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>63,92%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>63,37%</t>
   </si>
   <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602B8B7A-E930-4485-A67E-3858D74C6C92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A17663-4E15-4EE8-A130-A0E4E3FBCA27}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1211,13 +1211,13 @@
         <v>64857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>163</v>
@@ -1226,13 +1226,13 @@
         <v>130366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,13 +1247,13 @@
         <v>136063</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>149</v>
@@ -1262,13 +1262,13 @@
         <v>111256</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>312</v>
@@ -1277,13 +1277,13 @@
         <v>247319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1351,13 +1351,13 @@
         <v>118373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>145</v>
@@ -1366,13 +1366,13 @@
         <v>112293</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>276</v>
@@ -1381,13 +1381,13 @@
         <v>230666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,13 +1402,13 @@
         <v>170621</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -1417,13 +1417,13 @@
         <v>147145</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>406</v>
@@ -1432,13 +1432,13 @@
         <v>317767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1506,13 @@
         <v>255579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>335</v>
@@ -1521,13 +1521,13 @@
         <v>238607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>667</v>
@@ -1536,13 +1536,13 @@
         <v>494186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1557,13 @@
         <v>452848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>580</v>
@@ -1572,10 +1572,10 @@
         <v>402002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>100</v>

--- a/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1078CB56-7D63-4A0D-BBB2-98FFC95F1C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FC17E8B-B4A0-4D72-826C-B8DD97EE5CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2EFDCC85-CEE4-415B-A43C-4D546DDC16E9}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{AD89956D-005F-4EED-ADFB-442F384760F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si tienen una baja adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 96,56%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,220 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A17663-4E15-4EE8-A130-A0E4E3FBCA27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FFD036-F56A-4CB6-8F51-5D1BDF6AB649}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -880,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>17561</v>
+        <v>16427</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -895,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>15643</v>
+        <v>18843</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -913,7 +919,7 @@
         <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>33204</v>
+        <v>35269</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -931,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>25583</v>
+        <v>30068</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -946,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7">
-        <v>30650</v>
+        <v>26442</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -964,7 +970,7 @@
         <v>100</v>
       </c>
       <c r="N5" s="7">
-        <v>56232</v>
+        <v>56510</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -982,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1015,7 +1021,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1035,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7">
-        <v>54136</v>
+        <v>46381</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1050,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I7" s="7">
-        <v>45814</v>
+        <v>58319</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1068,7 +1074,7 @@
         <v>164</v>
       </c>
       <c r="N7" s="7">
-        <v>99950</v>
+        <v>104700</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1086,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" s="7">
-        <v>120581</v>
+        <v>112918</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1101,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I8" s="7">
-        <v>112951</v>
+        <v>123640</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1119,7 +1125,7 @@
         <v>369</v>
       </c>
       <c r="N8" s="7">
-        <v>233532</v>
+        <v>236559</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1137,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1170,7 +1176,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7">
-        <v>65509</v>
+        <v>66710</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1205,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I10" s="7">
-        <v>64857</v>
+        <v>70538</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1223,7 +1229,7 @@
         <v>163</v>
       </c>
       <c r="N10" s="7">
-        <v>130366</v>
+        <v>137248</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1241,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7">
-        <v>136063</v>
+        <v>106362</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1256,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="I11" s="7">
-        <v>111256</v>
+        <v>141029</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1274,7 +1280,7 @@
         <v>312</v>
       </c>
       <c r="N11" s="7">
-        <v>247319</v>
+        <v>247392</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1292,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>211567</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1325,7 +1331,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377685</v>
+        <v>384640</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>118373</v>
+        <v>132553</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1360,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="I13" s="7">
-        <v>112293</v>
+        <v>134873</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1378,7 +1384,7 @@
         <v>276</v>
       </c>
       <c r="N13" s="7">
-        <v>230666</v>
+        <v>267427</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1396,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>170621</v>
+        <v>141714</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1411,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>147145</v>
+        <v>170126</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1429,7 +1435,7 @@
         <v>406</v>
       </c>
       <c r="N14" s="7">
-        <v>317767</v>
+        <v>311839</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1450,7 +1456,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1465,7 +1471,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1480,7 +1486,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1500,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D16" s="7">
-        <v>255579</v>
+        <v>262072</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1515,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I16" s="7">
-        <v>238607</v>
+        <v>282573</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1527,22 +1533,22 @@
         <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>667</v>
       </c>
       <c r="N16" s="7">
-        <v>494186</v>
+        <v>544644</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>580</v>
+      </c>
+      <c r="D17" s="7">
+        <v>391062</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>607</v>
       </c>
-      <c r="D17" s="7">
-        <v>452848</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="7">
-        <v>580</v>
-      </c>
       <c r="I17" s="7">
-        <v>402002</v>
+        <v>461238</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1187</v>
       </c>
       <c r="N17" s="7">
-        <v>854850</v>
+        <v>852300</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="D18" s="7">
-        <v>708427</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>743811</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1635,7 +1641,7 @@
         <v>1854</v>
       </c>
       <c r="N18" s="7">
-        <v>1349036</v>
+        <v>1396944</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1649,7 +1655,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
